--- a/note/07_jQuery/0315.model2ex.xlsx
+++ b/note/07_jQuery/0315.model2ex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webPro\note\07_jQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPro\note\07_jQuery\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="168">
   <si>
     <t>이용자 권한과 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,14 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Controller 호출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mid, mpw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,7 +682,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fno</t>
+    <t>기능 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller 요청 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,6 +1331,27 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,30 +1376,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1393,12 +1395,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1791,41 +1787,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="B2" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1870,32 +1866,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59" t="s">
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="56"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -1995,7 +1991,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2016,7 +2012,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="60"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2054,7 +2050,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="59" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2075,7 +2071,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="52"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2113,7 +2109,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2134,7 +2130,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="60"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2193,7 +2189,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="57" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2214,7 +2210,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="62"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2252,7 +2248,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="57" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2273,7 +2269,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="62"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2311,7 +2307,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="57" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2332,7 +2328,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="62"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2370,7 +2366,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="57" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2391,7 +2387,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2429,7 +2425,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2450,7 +2446,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="62"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2488,8 +2484,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="62" t="s">
-        <v>84</v>
+      <c r="C36" s="57" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="6"/>
@@ -2509,7 +2505,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2568,7 +2564,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="58" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2589,7 +2585,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="63"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2627,7 +2623,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -2648,7 +2644,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="63"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2686,7 +2682,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="58" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -2707,7 +2703,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="63"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2745,7 +2741,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="58" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -2766,7 +2762,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2825,7 +2821,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="53" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -2846,7 +2842,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="61"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2884,7 +2880,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="53" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -2905,7 +2901,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="61"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2943,7 +2939,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -2964,7 +2960,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="61"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3002,7 +2998,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="53" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3023,7 +3019,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="61"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3061,7 +3057,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="53" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3082,7 +3078,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="61"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3120,8 +3116,8 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="65" t="s">
-        <v>83</v>
+      <c r="C68" s="54" t="s">
+        <v>81</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -3141,7 +3137,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="65"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3201,18 +3197,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="M72" s="64"/>
+      <c r="L72" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M72" s="52"/>
       <c r="N72" s="40"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3238,13 +3234,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3257,12 +3252,13 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3388,9 +3384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3500,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3520,124 +3514,124 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="G2" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
-        <v>68</v>
+      <c r="B3" s="70" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>98</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>64</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -3645,56 +3639,56 @@
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
       <c r="E9" s="46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="74"/>
       <c r="C10" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="F10" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>95</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -3702,52 +3696,52 @@
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
       <c r="E12" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="48" t="s">
         <v>111</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="80"/>
       <c r="C13" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="47" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>116</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="80"/>
       <c r="C14" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>120</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -3755,211 +3749,206 @@
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
       <c r="E15" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>121</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="80"/>
       <c r="C16" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="80"/>
-      <c r="C17" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>74</v>
+      <c r="C17" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>72</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="80"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="80"/>
       <c r="C19" s="49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="80"/>
       <c r="C20" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="80"/>
-      <c r="C21" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>81</v>
+      <c r="C21" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="80"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="80"/>
       <c r="C23" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="80"/>
-      <c r="C24" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>79</v>
+      <c r="C24" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="81"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B8:B10"/>
@@ -3972,6 +3961,11 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/note/07_jQuery/0315.model2ex.xlsx
+++ b/note/07_jQuery/0315.model2ex.xlsx
@@ -270,15 +270,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>joinView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>join.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JoinService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,272 +421,280 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/idConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/emailConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MidConfirmService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/login.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLogoutService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAllViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminLogin.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawal.do</t>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWithdrawalService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardWriteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardWrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardModifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDto속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">freeBoard/boardList.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">freeBoard/boardContent.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">freeBoard/boardModify.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">freeBoard/boardReply.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/mAllView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aid, apw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller 요청 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MemailConfirmService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/login.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLoginService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLogoutService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/modify.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAllViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALoginService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>allView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/adminLogin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawal.do</t>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MWithdrawalService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardWriteView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardWrite.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardContent.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardModifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardModify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardDelete.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReplyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReply.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardList.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardContent.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardReply.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardWriteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardListService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardContentService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/mAllView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardList.do</t>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid, mpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">aid, apw </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller 요청 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
+    <t>memailConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/midConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memailConfirm.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,51 +1331,51 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1385,41 +1385,41 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,41 +1787,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1866,32 +1866,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66" t="s">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="63"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>27</v>
@@ -1991,7 +1991,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="60" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2012,7 +2012,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2050,7 +2050,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="52" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2071,7 +2071,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2109,7 +2109,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="60" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2130,7 +2130,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="56"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2189,7 +2189,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="62" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2210,7 +2210,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2248,7 +2248,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="62" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2269,7 +2269,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2307,7 +2307,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="62" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2328,7 +2328,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2366,7 +2366,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="62" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2387,7 +2387,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="57"/>
+      <c r="C31" s="62"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2425,7 +2425,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="62" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2446,7 +2446,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2484,8 +2484,8 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="57" t="s">
-        <v>82</v>
+      <c r="C36" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="6"/>
@@ -2505,7 +2505,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="57"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2564,7 +2564,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="63" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2585,7 +2585,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="58"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2623,7 +2623,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -2644,7 +2644,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="63"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2682,7 +2682,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="63" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -2703,7 +2703,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="58"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2741,7 +2741,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -2762,7 +2762,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2821,7 +2821,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="61" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -2842,7 +2842,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2880,7 +2880,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="61" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -2901,7 +2901,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="53"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2939,7 +2939,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="61" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -2960,7 +2960,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="53"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2998,7 +2998,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="61" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3019,7 +3019,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="53"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3057,7 +3057,7 @@
     <row r="65" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3078,7 +3078,7 @@
     <row r="66" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3116,8 +3116,8 @@
     <row r="68" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="54" t="s">
-        <v>81</v>
+      <c r="C68" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -3137,7 +3137,7 @@
     <row r="69" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="54"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3197,18 +3197,18 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
       <c r="H72" s="6"/>
       <c r="I72" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J72" s="38"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="M72" s="52"/>
+      <c r="L72" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" s="64"/>
       <c r="N72" s="40"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5"/>
@@ -3234,12 +3234,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F72:G72"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3252,13 +3253,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3514,441 +3514,442 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
-        <v>66</v>
+      <c r="B3" s="80" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>96</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71"/>
-      <c r="C4" s="75" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="45" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="45" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>89</v>
+      <c r="B8" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>87</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="70"/>
+      <c r="C10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="46" t="s">
+      <c r="D10" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="F10" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>93</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>99</v>
+      <c r="B11" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="47" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H12" s="48" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H13" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="78"/>
+      <c r="C14" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>118</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="78"/>
+      <c r="C16" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
-      <c r="C16" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>127</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
-      <c r="C17" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>72</v>
+      <c r="B17" s="78"/>
+      <c r="C17" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="49" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
       <c r="E22" s="49" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H22" s="49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="78"/>
+      <c r="C23" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="49" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="49" t="s">
+      <c r="G23" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="78"/>
+      <c r="C24" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="68" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
       <c r="E25" s="49" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D21:D22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="B8:B10"/>
@@ -3965,7 +3966,6 @@
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/note/07_jQuery/0315.model2ex.xlsx
+++ b/note/07_jQuery/0315.model2ex.xlsx
@@ -369,332 +369,332 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>adminLogin.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자모드 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">main/main.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 모드 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MidConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/login.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLoginService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logout.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLogoutService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/modify.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAllViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/adminLogin.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdrawal.do</t>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MWithdrawalService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main/main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardWriteView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardWrite.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardContent.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardModifyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardModify.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardDelete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReplyView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardReply.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDto속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardWriteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardListService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardContentService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDeleteService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardReplyService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto 속성들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardModifyViewService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">member/mAllView.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardList.do</t>
+  </si>
+  <si>
+    <t>boardList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid, mpw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">aid, apw </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 소분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller 요청 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJoinService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>midConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemailConfirmService.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memailConfirm.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/midConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/memailConfirm.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>adminLoginView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>adminLogin.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자모드 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원들 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>allView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pageNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">main/main.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 모드 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MidConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/login.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLoginService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logout.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MLogoutService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/modify.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAllViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ALoginService.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin/adminLogin.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>withdrawal.do</t>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MWithdrawalService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main/main.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardWriteView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardWrite.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardContent.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardModifyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardModify.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardDelete.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReplyView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardReply.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberDto속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardWrite.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardList.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardContent.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardModify.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">freeBoard/boardReply.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardWriteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardListService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardContentService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDeleteService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardReplyService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardDto 속성들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoardModifyViewService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">member/mAllView.jsp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boardList.do</t>
-  </si>
-  <si>
-    <t>boardList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid, mpw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">aid, apw </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 소분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Controller 요청 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joinView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MJoinService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>midConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemailConfirmService.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memailConfirm.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/midConfirm.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member/memailConfirm.jsp</t>
+    <t xml:space="preserve">fileBoard/boardWrite.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardList.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardContent.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardModify.jsp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fileBoard/boardReply.jsp </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1379,6 +1379,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,9 +1420,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3494,8 +3494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3514,53 +3514,53 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H2" s="42" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>93</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>94</v>
       </c>
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="72" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F4" s="45"/>
       <c r="G4" s="45"/>
@@ -3569,251 +3569,251 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="45" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F5" s="45"/>
       <c r="G5" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="45" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="45" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>87</v>
+      <c r="D8" s="75" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
       <c r="E9" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="70"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="E10" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="F10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="G10" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="46" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="75" t="s">
-        <v>97</v>
-      </c>
       <c r="E11" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="47"/>
       <c r="H11" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="79"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="47" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="47" t="s">
+      <c r="F12" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="47" t="s">
+      <c r="H12" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="48" t="s">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="79"/>
+      <c r="C13" s="47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="78"/>
-      <c r="C13" s="47" t="s">
+      <c r="D13" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="E13" s="47" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>107</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
+      <c r="C14" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="78"/>
-      <c r="C14" s="75" t="s">
+      <c r="D14" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="E14" s="47" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>111</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="47"/>
       <c r="H14" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="78"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F16" s="48"/>
       <c r="G16" s="48" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" s="48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="68" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" s="49"/>
       <c r="G17" s="50"/>
       <c r="H17" s="49" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G18" s="49" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="49" t="s">
         <v>67</v>
       </c>
@@ -3821,18 +3821,18 @@
         <v>71</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F19" s="49"/>
       <c r="G19" s="49" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="78"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="49" t="s">
         <v>68</v>
       </c>
@@ -3840,56 +3840,56 @@
         <v>72</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G20" s="49" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
-      <c r="C21" s="68" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="69" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F21" s="49"/>
       <c r="G21" s="49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="49" t="s">
         <v>73</v>
       </c>
@@ -3897,75 +3897,75 @@
         <v>76</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G23" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="51" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="68" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="69" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H24" s="49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="49" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="79"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>147</v>
-      </c>
       <c r="G25" s="49" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H25" s="51" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="B11:B25"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
